--- a/gropin/schema/metadataschema262.xlsx
+++ b/gropin/schema/metadataschema262.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Lactic acid bacteria in/on Deli salads _Fava-, Pepper-, Cheese salad_ (gropin ID: 262 )</t>
+          <t>Gropin secondary growth model for Lactic acid bacteria in/on Deli salads _Fava-, Pepper-, Cheese salad_ (gropin ID: 262 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(4.004,24.975024975025,length.out=21)</t>
+          <t>seq(4.004,24.975024975025,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(3.6036,4.4955044955045,length.out=21)</t>
+          <t>seq(3.6036,4.4955044955045,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0,3.996003996004,length.out=21)</t>
+          <t>seq(0,3.996003996004,length.out=10)</t>
         </is>
       </c>
     </row>
